--- a/xl.xlsx
+++ b/xl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csquattro/PycharmProjects/pypdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033FFD0E-4DA3-3843-A644-3E98C557D7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572E0A24-2C5D-984A-953A-1EDB305F0B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="3680" windowWidth="32880" windowHeight="22160" xr2:uid="{A7E093EB-975B-FD41-81C6-2306C7F01F28}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>법인명칭</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>배치장소전화번호1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +690,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -798,9 +802,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="47" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1234567</v>
+      </c>
+      <c r="C6" s="13">
+        <v>765544321</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="47" customHeight="1">
       <c r="A7" s="4"/>

--- a/xl.xlsx
+++ b/xl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csquattro/PycharmProjects/pypdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572E0A24-2C5D-984A-953A-1EDB305F0B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1BFBFB-0276-BE49-B276-E46CD1441132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="3680" windowWidth="32880" windowHeight="22160" xr2:uid="{A7E093EB-975B-FD41-81C6-2306C7F01F28}"/>
+    <workbookView xWindow="3820" yWindow="1840" windowWidth="32880" windowHeight="22160" xr2:uid="{A7E093EB-975B-FD41-81C6-2306C7F01F28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>법인명칭</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,6 +375,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,7 +700,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -732,7 +742,7 @@
     </row>
     <row r="2" spans="1:8" ht="47" customHeight="1" thickBot="1">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -780,14 +790,14 @@
       <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6">
-        <v>20200101</v>
-      </c>
-      <c r="D4" s="6">
-        <v>20200102</v>
-      </c>
-      <c r="E4" s="7">
-        <v>20200103</v>
+      <c r="C4" s="14">
+        <v>43831</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43832</v>
+      </c>
+      <c r="E4" s="15">
+        <v>43833</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="47" customHeight="1">
@@ -813,9 +823,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="47" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5746363</v>
+      </c>
+      <c r="C7" s="13">
+        <v>145134152</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="47" customHeight="1">
       <c r="A8" s="4"/>

--- a/xl.xlsx
+++ b/xl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csquattro/PycharmProjects/pypdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1BFBFB-0276-BE49-B276-E46CD1441132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64104717-FA99-9147-A456-430C691DF7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="1840" windowWidth="32880" windowHeight="22160" xr2:uid="{A7E093EB-975B-FD41-81C6-2306C7F01F28}"/>
   </bookViews>
@@ -28,118 +28,118 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>법인명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>허가번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>법인소재지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>법인전화번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경비의 목적 또는 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>배치 경비업무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>배치1 배치폐지2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>허가번호1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>법인명칭1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>소재지1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전번1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>업무1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>목적내용1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고인1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>배치장소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>배치장소전화번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>배치일시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>배치폐지일시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고년월일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>성명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주민등록번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경비원신임교육 이수증번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>배치장소1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>배치장소전화번호1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>테스트2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,7 +149,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -157,7 +164,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -334,53 +342,74 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,21 +726,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D53242B-D401-BE4B-BC53-2C1AB1DC94AC}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E4" sqref="C4:E4"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47" customHeight="1">
@@ -736,165 +766,958 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="47" customHeight="1" thickBot="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="47" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="47" customHeight="1" thickBot="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>43831</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>43832</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>43833</v>
       </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="47" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="47" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="53" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1234567</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>765544321</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="47" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="53" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>5746363</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>145134152</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="47" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="47" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="47" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="47" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="47" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="47" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="47" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="47" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" ht="47" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" ht="47" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" ht="47" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" ht="47" customHeight="1" thickBot="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="53" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="53" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="53" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="53" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="53" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="53" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="53" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="53" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="53" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="53" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="53" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="53" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="53" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" ht="53" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="53" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="53" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="53" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="53" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="53" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="53" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" ht="53" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="53" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="53" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="53" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" ht="53" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" ht="53" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" ht="53" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" ht="53" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="53" customHeight="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" ht="53" customHeight="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" ht="53" customHeight="1">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" ht="53" customHeight="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" ht="53" customHeight="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" ht="53" customHeight="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" ht="53" customHeight="1">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" ht="53" customHeight="1">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" ht="53" customHeight="1">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" ht="53" customHeight="1">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" ht="53" customHeight="1">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" ht="53" customHeight="1">
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" ht="53" customHeight="1">
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" ht="53" customHeight="1">
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7" ht="53" customHeight="1">
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7" ht="53" customHeight="1">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:7" ht="53" customHeight="1">
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" ht="53" customHeight="1">
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" ht="53" customHeight="1">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" ht="53" customHeight="1">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" ht="53" customHeight="1">
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:7" ht="53" customHeight="1">
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="1:7" ht="53" customHeight="1">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:7" ht="53" customHeight="1">
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" ht="53" customHeight="1">
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" ht="53" customHeight="1">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="1:7" ht="53" customHeight="1">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:7" ht="53" customHeight="1">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="1:7" ht="53" customHeight="1">
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" ht="53" customHeight="1">
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" ht="53" customHeight="1">
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" ht="53" customHeight="1">
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" ht="53" customHeight="1">
+      <c r="A68" s="15"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="1:7" ht="53" customHeight="1">
+      <c r="A69" s="15"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" ht="53" customHeight="1">
+      <c r="A70" s="15"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" ht="53" customHeight="1">
+      <c r="A71" s="15"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" ht="53" customHeight="1">
+      <c r="A72" s="15"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="1:7" ht="53" customHeight="1">
+      <c r="A73" s="15"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="1:7" ht="53" customHeight="1">
+      <c r="A74" s="15"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+    </row>
+    <row r="75" spans="1:7" ht="53" customHeight="1">
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="1:7" ht="53" customHeight="1">
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="1:7" ht="53" customHeight="1">
+      <c r="A77" s="15"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" ht="53" customHeight="1">
+      <c r="A78" s="15"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" ht="53" customHeight="1">
+      <c r="A79" s="15"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" ht="53" customHeight="1">
+      <c r="A80" s="15"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="1:7" ht="53" customHeight="1">
+      <c r="A81" s="15"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="1:7" ht="53" customHeight="1">
+      <c r="A82" s="15"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="1:7" ht="53" customHeight="1">
+      <c r="A83" s="15"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="1:7" ht="53" customHeight="1">
+      <c r="A84" s="15"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="1:7" ht="53" customHeight="1">
+      <c r="A85" s="15"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="1:7" ht="53" customHeight="1">
+      <c r="A86" s="15"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="1:7" ht="53" customHeight="1">
+      <c r="A87" s="15"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="1:7" ht="53" customHeight="1">
+      <c r="A88" s="15"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" ht="53" customHeight="1">
+      <c r="A89" s="15"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="1:7" ht="53" customHeight="1">
+      <c r="A90" s="15"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="1:7" ht="53" customHeight="1">
+      <c r="A91" s="15"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" ht="53" customHeight="1">
+      <c r="A92" s="15"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="1:7" ht="53" customHeight="1">
+      <c r="A93" s="15"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:7" ht="53" customHeight="1">
+      <c r="A94" s="15"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="1:7" ht="53" customHeight="1">
+      <c r="A95" s="15"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" ht="53" customHeight="1">
+      <c r="A96" s="15"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="1:7" ht="53" customHeight="1">
+      <c r="A97" s="15"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="1:7" ht="53" customHeight="1">
+      <c r="A98" s="15"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" spans="1:7" ht="53" customHeight="1">
+      <c r="A99" s="15"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:7" ht="53" customHeight="1" thickBot="1">
+      <c r="A100" s="18"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xl.xlsx
+++ b/xl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csquattro/PycharmProjects/pypdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64104717-FA99-9147-A456-430C691DF7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E697EA-BA5F-0044-A010-0F5C8A1BAC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="1840" windowWidth="32880" windowHeight="22160" xr2:uid="{A7E093EB-975B-FD41-81C6-2306C7F01F28}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>법인명칭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>테스트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +733,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -825,8 +829,8 @@
       <c r="C4" s="12">
         <v>43831</v>
       </c>
-      <c r="D4" s="12">
-        <v>43832</v>
+      <c r="D4" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="E4" s="13">
         <v>43833</v>
